--- a/NEW HR/JAYSON, EUGENIA.xlsx
+++ b/NEW HR/JAYSON, EUGENIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>12/13,14,15,18,19,22,26,27,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/03-05/2024</t>
   </si>
 </sst>
 </file>
@@ -691,6 +697,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -703,20 +718,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,7 +1419,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1462,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1526,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1586,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1652,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1715,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1813,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1872,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1937,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1980,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2055,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2307,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2365,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2431,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2487,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2562,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2605,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2671,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2727,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2825,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2888,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3356,12 +3362,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M134"/>
+  <dimension ref="A2:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A82"/>
+      <pane ySplit="4425" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85:C86"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,14 +3397,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3409,14 +3415,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3429,14 +3435,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3462,18 +3468,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3520,7 +3526,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>65</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3530,13 +3536,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>87</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44">
         <f>SUM(E9,I9)</f>
-        <v>152.5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5112,13 +5118,15 @@
         <v>45291</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5126,8 +5134,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45322</v>
+      <c r="A88" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5145,9 +5153,11 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -5156,14 +5166,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>3</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5181,7 +5195,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5199,7 +5213,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5217,7 +5231,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5235,7 +5249,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5253,7 +5267,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5271,7 +5285,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5289,7 +5303,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5307,7 +5321,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5325,7 +5339,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5343,7 +5357,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5361,7 +5375,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5379,7 +5393,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5397,7 +5411,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5415,7 +5429,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5433,7 +5447,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5451,7 +5465,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5469,7 +5483,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5487,7 +5501,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5505,7 +5519,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5523,7 +5537,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5541,7 +5555,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5559,7 +5573,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5577,7 +5591,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5595,7 +5609,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5613,7 +5627,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5631,7 +5645,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5649,7 +5663,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5667,7 +5681,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5685,7 +5699,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5703,7 +5717,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5721,7 +5735,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5738,7 +5752,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46326</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5930,34 +5946,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6026,14 +6058,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6047,17 +6079,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6071,17 +6103,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="str">
+      <c r="F4" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6107,18 +6139,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
